--- a/biology/Zoologie/Graphium_agamemnon/Graphium_agamemnon.xlsx
+++ b/biology/Zoologie/Graphium_agamemnon/Graphium_agamemnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Voilier vert (Graphium agamemnon) est une espèce de lépidoptères appartenant à la famille des Papilionidae, à la sous-famille des Papilioninae et au genre Graphium.
 </t>
@@ -511,10 +523,12 @@
           <t>Description de l'imago</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Voilier vert est un papillon noir aux ailes  avec des marques blanches et vertes. Son vol rapide est très harmonieux. Il mesure entre 8 et 10 cm d'envergure[1].
+Le Voilier vert est un papillon noir aux ailes  avec des marques blanches et vertes. Son vol rapide est très harmonieux. Il mesure entre 8 et 10 cm d'envergure.
 Ce papillon vit environ une semaine et il n'est actif que par temps clair.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lépidoptère, originaire des Philippines est présent notamment en Asie continentale tropicale, dans les îles de la Sonde, en Papouasie-Nouvelle-Guinée et en Australie . 
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium agamemnon vit où poussent les plantes nourricières des chenilles, c'est-à-dire dans les zones urbaines de basse altitude, dans les jardins et à l'orée des forêts tropicales humides montagneuses.
 </t>
@@ -606,7 +624,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille mange des feuilles Camphrier (Cinnamomum camphora ; Lauraceae), de Faux ashoka (Polyalthia longifolia ; Annonaceae) et de Pommier canelle ou attier (Annona squamosa ; Annonaceae).
 </t>
